--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 15.02.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 19.03.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
     <t>Показания на день оплаты</t>
   </si>
   <si>
@@ -38,9 +35,6 @@
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Т1</t>
   </si>
   <si>
@@ -50,17 +44,30 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>переплата</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00&quot; ₽&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -90,13 +97,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,21 +129,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,24 +173,22 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,464 +559,366 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:F16"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>43407</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="2">
+        <v>3528</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>43281</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="2">
+        <v>3368</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
-        <v>3048</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2968</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>43323</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>43602</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>3158</v>
+        <v>3638</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D13" si="0">C4-C2</f>
+        <f t="shared" ref="D4:D7" si="0">C4-C2</f>
         <v>110</v>
       </c>
-      <c r="E4" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" ref="F4:F13" si="1">D4*E4</f>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="E4" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ref="F4:F7" si="1">D4*E4</f>
+        <v>502.70000000000005</v>
+      </c>
+      <c r="G4" s="11">
+        <f>SUM(F4,F5)</f>
+        <v>956.80000000000007</v>
+      </c>
+      <c r="H4" s="11">
+        <v>956.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>3068</v>
+        <v>3558</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="E5" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F5" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="F5" s="9">
         <f t="shared" si="1"/>
-        <v>235</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>43372</v>
+        <v>454.1</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>43646</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
-        <v>3328</v>
+        <v>3878</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="E6" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F6" s="7">
+        <v>240</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.57</v>
+      </c>
+      <c r="F6" s="9">
         <f t="shared" si="1"/>
-        <v>765</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+        <v>1096.8000000000002</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(F6,F7)</f>
+        <v>1407.5000000000002</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1407.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>3218</v>
+        <v>3688</v>
       </c>
       <c r="D7" s="2">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E7" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="1"/>
-        <v>352.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>43407</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3528</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="E8" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3368</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="1"/>
-        <v>352.5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>43602</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3638</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="E10" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>502.70000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3558</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="E11" s="2">
         <v>2.39</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="1"/>
-        <v>454.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>43646</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3878</v>
-      </c>
-      <c r="D12" s="2">
-        <v>240</v>
-      </c>
-      <c r="E12" s="6">
-        <v>4.57</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>1096.8000000000002</v>
-      </c>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3688</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.39</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="F7" s="9">
         <f t="shared" si="1"/>
         <v>310.7</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>43693</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4038</v>
+      </c>
+      <c r="D8" s="2">
+        <f>C8-C6</f>
+        <v>160</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F8" s="9">
+        <f>D8*E8</f>
+        <v>718.40000000000009</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(F8,F9)</f>
+        <v>1082.9000000000001</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1089.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3838</v>
+      </c>
+      <c r="D9" s="2">
+        <f>C9-C7</f>
+        <v>150</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F9" s="9">
+        <f>D9*E9</f>
+        <v>364.5</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>43748</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4168</v>
+      </c>
+      <c r="D10" s="2">
+        <f>C10-C8</f>
+        <v>130</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F10" s="9">
+        <f>D10*E10</f>
+        <v>583.70000000000005</v>
+      </c>
+      <c r="G10" s="11">
+        <f>SUM(F10,F11)</f>
+        <v>996.80000000000007</v>
+      </c>
+      <c r="H10" s="11">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4008</v>
+      </c>
+      <c r="D11" s="2">
+        <f>C11-C9</f>
+        <v>170</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F11" s="9">
+        <f>D11*E11</f>
+        <v>413.1</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>43791</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4308</v>
+      </c>
+      <c r="D12" s="2">
+        <f>C12-C10</f>
+        <v>140</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="9">
+        <f>D12*E12</f>
+        <v>628.6</v>
+      </c>
+      <c r="G12" s="11">
+        <f>SUM(F12,F13)</f>
+        <v>993.1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>993.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4158</v>
+      </c>
+      <c r="D13" s="2">
+        <f>C13-C11</f>
+        <v>150</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="9">
+        <f>D13*E13</f>
+        <v>364.5</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>43693</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
-        <v>4038</v>
-      </c>
-      <c r="D14" s="2">
-        <f>C14-C12</f>
-        <v>160</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="7">
-        <f>D14*E14</f>
-        <v>718.40000000000009</v>
+      <c r="A14" s="5"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="11">
+        <f>SUM(G2:G13)</f>
+        <v>5437.1</v>
+      </c>
+      <c r="H14" s="11">
+        <f>SUM(H2:H13)</f>
+        <v>5437.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2">
-        <v>3838</v>
-      </c>
-      <c r="D15" s="2">
-        <f>C15-C13</f>
-        <v>150</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="7">
-        <f>D15*E15</f>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>43748</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4168</v>
-      </c>
-      <c r="D17" s="2">
-        <f>C17-C14</f>
-        <v>130</v>
-      </c>
-      <c r="E17" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F17" s="7">
-        <f>D17*E17</f>
-        <v>583.70000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4008</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C18-C15</f>
-        <v>170</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F18" s="7">
-        <f>D18*E18</f>
-        <v>413.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>43791</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2">
-        <v>4308</v>
-      </c>
-      <c r="D19" s="2">
-        <f>C19-C17</f>
-        <v>140</v>
-      </c>
-      <c r="E19" s="6">
-        <v>4.49</v>
-      </c>
-      <c r="F19" s="7">
-        <f>D19*E19</f>
-        <v>628.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2">
-        <v>4158</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C20-C18</f>
-        <v>150</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F20" s="7">
-        <f>D20*E20</f>
-        <v>364.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Desktop\ЭЭ по 19.03.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\ЭЭ готово 02.04.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -750,14 +750,14 @@
         <v>4038</v>
       </c>
       <c r="D8" s="2">
-        <f>C8-C6</f>
+        <f t="shared" ref="D8:D15" si="2">C8-C6</f>
         <v>160</v>
       </c>
       <c r="E8" s="4">
         <v>4.49</v>
       </c>
       <c r="F8" s="9">
-        <f>D8*E8</f>
+        <f t="shared" ref="F8:F13" si="3">D8*E8</f>
         <v>718.40000000000009</v>
       </c>
       <c r="G8" s="11">
@@ -777,14 +777,14 @@
         <v>3838</v>
       </c>
       <c r="D9" s="2">
-        <f>C9-C7</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E9" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F9" s="9">
-        <f>D9*E9</f>
+        <f t="shared" si="3"/>
         <v>364.5</v>
       </c>
       <c r="G9" s="11"/>
@@ -801,14 +801,14 @@
         <v>4168</v>
       </c>
       <c r="D10" s="2">
-        <f>C10-C8</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="E10" s="4">
         <v>4.49</v>
       </c>
       <c r="F10" s="9">
-        <f>D10*E10</f>
+        <f t="shared" si="3"/>
         <v>583.70000000000005</v>
       </c>
       <c r="G10" s="11">
@@ -828,14 +828,14 @@
         <v>4008</v>
       </c>
       <c r="D11" s="2">
-        <f>C11-C9</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="E11" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="9">
-        <f>D11*E11</f>
+        <f t="shared" si="3"/>
         <v>413.1</v>
       </c>
       <c r="G11" s="11"/>
@@ -852,14 +852,14 @@
         <v>4308</v>
       </c>
       <c r="D12" s="2">
-        <f>C12-C10</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="E12" s="4">
         <v>4.49</v>
       </c>
       <c r="F12" s="9">
-        <f>D12*E12</f>
+        <f t="shared" si="3"/>
         <v>628.6</v>
       </c>
       <c r="G12" s="11">
@@ -879,46 +879,97 @@
         <v>4158</v>
       </c>
       <c r="D13" s="2">
-        <f>C13-C11</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E13" s="2">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="9">
-        <f>D13*E13</f>
+        <f t="shared" si="3"/>
         <v>364.5</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="9" t="s">
-        <v>11</v>
+      <c r="A14" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4538</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>1032.7</v>
       </c>
       <c r="G14" s="11">
-        <f>SUM(G2:G13)</f>
-        <v>5437.1</v>
+        <f>SUM(F14,F15)</f>
+        <v>1761.7</v>
       </c>
       <c r="H14" s="11">
-        <f>SUM(H2:H13)</f>
-        <v>5437.1</v>
+        <v>1761.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4458</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="4"/>
+        <v>729</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G2:G15)</f>
+        <v>7198.8</v>
+      </c>
+      <c r="H16" s="11">
+        <f>SUM(H2:H15)</f>
+        <v>7198.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\ЭЭ готово 02.04.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -944,32 +944,83 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
+      <c r="A16" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4788</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" ref="D16:D17" si="5">C16-C14</f>
+        <v>250</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>1122.5</v>
       </c>
       <c r="G16" s="11">
-        <f>SUM(G2:G15)</f>
-        <v>7198.8</v>
+        <f>SUM(F16,F17)</f>
+        <v>1559.9</v>
       </c>
       <c r="H16" s="11">
-        <f>SUM(H2:H15)</f>
-        <v>7198.8</v>
+        <v>1559.9</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4638</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="6"/>
+        <v>437.40000000000003</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="11">
+        <f>SUM(G2:G17)</f>
+        <v>8758.7000000000007</v>
+      </c>
+      <c r="H18" s="11">
+        <f>SUM(H2:H17)</f>
+        <v>8758.7000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\новое ee 03.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -995,32 +995,83 @@
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9" t="s">
-        <v>11</v>
+      <c r="A18" s="3">
+        <v>44012</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4898</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" ref="D18:D19" si="7">C18-C16</f>
+        <v>110</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>493.90000000000003</v>
       </c>
       <c r="G18" s="11">
-        <f>SUM(G2:G17)</f>
-        <v>8758.7000000000007</v>
+        <f>SUM(F18,F19)</f>
+        <v>761.2</v>
       </c>
       <c r="H18" s="11">
-        <f>SUM(H2:H17)</f>
-        <v>8758.7000000000007</v>
+        <v>761.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4748</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="8"/>
+        <v>267.3</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11">
+        <f>SUM(G2:G19)</f>
+        <v>9519.9000000000015</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(H2:H19)</f>
+        <v>9519.9000000000015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 05.06.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1046,32 +1046,83 @@
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="9" t="s">
-        <v>11</v>
+      <c r="A20" s="3">
+        <v>44057</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4998</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:D21" si="9">C20-C18</f>
+        <v>100</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>471</v>
       </c>
       <c r="G20" s="11">
-        <f>SUM(G2:G19)</f>
-        <v>9519.9000000000015</v>
+        <f>SUM(F20,F21)</f>
+        <v>726</v>
       </c>
       <c r="H20" s="11">
-        <f>SUM(H2:H19)</f>
-        <v>9519.9000000000015</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4848</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="10"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(G2:G21)</f>
+        <v>10245.900000000001</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>10245.900000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\30.06.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.07.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.09.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1097,32 +1097,83 @@
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9" t="s">
+      <c r="A22" s="3">
+        <v>44099</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5198</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:D23" si="11">C22-C20</f>
+        <v>200</v>
+      </c>
+      <c r="E22" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" ref="F22:F23" si="12">D22*E22</f>
+        <v>942</v>
+      </c>
+      <c r="G22" s="11">
+        <f>SUM(F22,F23)</f>
+        <v>1273.5</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1273.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4978</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="12"/>
+        <v>331.5</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G24" s="11">
         <f>SUM(G2:G21)</f>
         <v>10245.900000000001</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H24" s="11">
         <f>SUM(H2:H21)</f>
         <v>10245.900000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.09.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 15.09.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\31.10.2020.ОБНОВЛЕНИЕ САЙТА\новое ee 31.10.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -559,10 +559,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1148,32 +1148,83 @@
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9" t="s">
-        <v>11</v>
+      <c r="A24" s="3">
+        <v>44138</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5198</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24:D25" si="13">C24-C22</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" ref="F24:F25" si="14">D24*E24</f>
+        <v>0</v>
       </c>
       <c r="G24" s="11">
-        <f>SUM(G2:G21)</f>
-        <v>10245.900000000001</v>
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
       </c>
       <c r="H24" s="11">
-        <f>SUM(H2:H21)</f>
-        <v>10245.900000000001</v>
+        <v>1008.6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4978</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="11">
+        <f>SUM(G2:G25)</f>
+        <v>11519.400000000001</v>
+      </c>
+      <c r="H26" s="11">
+        <f>SUM(H2:H25)</f>
+        <v>12528.000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Мама\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,31 +471,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44138</v>
+        <v>44330</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>5198</v>
+        <v>5688</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F11" si="0">D2*E2</f>
-        <v>0</v>
+        <v>2307.9</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>0</v>
+        <v>3200.4</v>
       </c>
       <c r="H2" s="8">
-        <v>1008.6</v>
+        <v>2191.8000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,18 +504,18 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>4978</v>
+        <v>5328</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>892.49999999999989</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\30.04.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия ee 14.05.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,31 +471,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44330</v>
+        <v>44376</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>5688</v>
+        <v>5838</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="E2" s="3">
         <v>4.71</v>
       </c>
       <c r="F2" s="8">
-        <f t="shared" ref="F2:F11" si="0">D2*E2</f>
-        <v>2307.9</v>
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>706.5</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>3200.4</v>
+        <v>1038</v>
       </c>
       <c r="H2" s="8">
-        <v>2191.8000000000002</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,49 +504,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>5328</v>
+        <v>5458</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>892.49999999999989</v>
+        <v>331.5</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44099</v>
+        <v>44330</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>5198</v>
+        <v>5688</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D11" si="1">SUM(C4,-C6)</f>
-        <v>200</v>
+        <f>SUM(C4,-C6)</f>
+        <v>490</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>942</v>
+        <f t="shared" ref="F4:F13" si="1">D4*E4</f>
+        <v>2307.9</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" ref="G4:G10" si="2">SUM(F4,F5)</f>
-        <v>1273.5</v>
+        <f>SUM(F4,F5)</f>
+        <v>3200.4</v>
       </c>
       <c r="H4" s="8">
-        <v>1273.5</v>
+        <v>2191.8000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,49 +555,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>4978</v>
+        <v>5328</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>SUM(C5,-C7)</f>
+        <v>350</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>331.5</v>
+        <f t="shared" si="1"/>
+        <v>892.49999999999989</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44057</v>
+        <v>44099</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>4998</v>
+        <v>5198</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" ref="D6:D13" si="2">SUM(C6,-C8)</f>
+        <v>200</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>471</v>
+        <f t="shared" si="1"/>
+        <v>942</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="2"/>
-        <v>726</v>
+        <f t="shared" ref="G6:G12" si="3">SUM(F6,F7)</f>
+        <v>1273.5</v>
       </c>
       <c r="H6" s="8">
-        <v>726</v>
+        <v>1273.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -606,49 +606,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>4848</v>
+        <v>4978</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="1"/>
+        <v>331.5</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44012</v>
+        <v>44057</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>4898</v>
+        <v>4998</v>
       </c>
       <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>493.90000000000003</v>
+        <v>471</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="2"/>
-        <v>761.2</v>
+        <f t="shared" si="3"/>
+        <v>726</v>
       </c>
       <c r="H8" s="8">
-        <v>791.2</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -657,49 +657,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>4748</v>
+        <v>4848</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
-        <v>267.3</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43973</v>
+        <v>44012</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>4788</v>
+        <v>4898</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="E10" s="3">
         <v>4.49</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="0"/>
-        <v>1122.5</v>
+        <f t="shared" si="1"/>
+        <v>493.90000000000003</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="2"/>
-        <v>1559.9</v>
+        <f t="shared" si="3"/>
+        <v>761.2</v>
       </c>
       <c r="H10" s="8">
-        <v>1559.9</v>
+        <v>791.2</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,67 +708,132 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>4638</v>
+        <v>4748</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="1"/>
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="E11" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>437.40000000000003</v>
-      </c>
-      <c r="G11" s="8"/>
+        <f t="shared" si="1"/>
+        <v>267.3</v>
+      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43945</v>
+        <v>43973</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10">
-        <v>4538</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C12" s="3">
+        <v>4788</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>1122.5</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="3"/>
+        <v>1559.9</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1559.9</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="3">
+        <v>4638</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="10">
+        <v>4538</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="10">
         <v>4458</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\18.06.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 28.06.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,31 +471,31 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>5838</v>
+        <v>5938</v>
       </c>
       <c r="D2" s="3">
         <f>SUM(C2,-C4)</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="E2" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>706.5</v>
+        <v>496</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(F2,F3)</f>
-        <v>1038</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="H2" s="8">
-        <v>1038</v>
+        <v>576.20000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,49 +504,49 @@
         <v>9</v>
       </c>
       <c r="C3" s="3">
-        <v>5458</v>
+        <v>5498</v>
       </c>
       <c r="D3" s="3">
         <f>SUM(C3,-C5)</f>
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F3" s="8">
         <f t="shared" si="0"/>
-        <v>331.5</v>
+        <v>107.2</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44330</v>
+        <v>44376</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>5688</v>
+        <v>5838</v>
       </c>
       <c r="D4" s="3">
         <f>SUM(C4,-C6)</f>
-        <v>490</v>
+        <v>150</v>
       </c>
       <c r="E4" s="3">
         <v>4.71</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F13" si="1">D4*E4</f>
-        <v>2307.9</v>
+        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
+        <v>706.5</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>3200.4</v>
+        <v>1038</v>
       </c>
       <c r="H4" s="8">
-        <v>2191.8000000000002</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,49 +555,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>5328</v>
+        <v>5458</v>
       </c>
       <c r="D5" s="3">
         <f>SUM(C5,-C7)</f>
-        <v>350</v>
+        <v>130</v>
       </c>
       <c r="E5" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>892.49999999999989</v>
+        <v>331.5</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44099</v>
+        <v>44330</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>5198</v>
+        <v>5688</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" ref="D6:D13" si="2">SUM(C6,-C8)</f>
-        <v>200</v>
+        <f>SUM(C6,-C8)</f>
+        <v>490</v>
       </c>
       <c r="E6" s="3">
         <v>4.71</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
-        <v>942</v>
+        <f t="shared" ref="F6:F15" si="2">D6*E6</f>
+        <v>2307.9</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G12" si="3">SUM(F6,F7)</f>
-        <v>1273.5</v>
+        <f>SUM(F6,F7)</f>
+        <v>3200.4</v>
       </c>
       <c r="H6" s="8">
-        <v>1273.5</v>
+        <v>2191.8000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -606,49 +606,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>4978</v>
+        <v>5328</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f>SUM(C7,-C9)</f>
+        <v>350</v>
       </c>
       <c r="E7" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
-        <v>331.5</v>
+        <f t="shared" si="2"/>
+        <v>892.49999999999989</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44057</v>
+        <v>44099</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>4998</v>
+        <v>5198</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" ref="D8:D15" si="3">SUM(C8,-C10)</f>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
-        <v>471</v>
+        <f t="shared" si="2"/>
+        <v>942</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" si="3"/>
-        <v>726</v>
+        <f t="shared" ref="G8:G14" si="4">SUM(F8,F9)</f>
+        <v>1273.5</v>
       </c>
       <c r="H8" s="8">
-        <v>726</v>
+        <v>1273.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -657,49 +657,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>4848</v>
+        <v>4978</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="2"/>
+        <v>331.5</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44012</v>
+        <v>44057</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>4898</v>
+        <v>4998</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="1"/>
-        <v>493.90000000000003</v>
+        <v>471</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="3"/>
-        <v>761.2</v>
+        <f t="shared" si="4"/>
+        <v>726</v>
       </c>
       <c r="H10" s="8">
-        <v>791.2</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,49 +708,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>4748</v>
+        <v>4848</v>
       </c>
       <c r="D11" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="1"/>
-        <v>267.3</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>43973</v>
+        <v>44012</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>4788</v>
+        <v>4898</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="2"/>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="E12" s="3">
         <v>4.49</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
-        <v>1122.5</v>
+        <f t="shared" si="2"/>
+        <v>493.90000000000003</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="3"/>
-        <v>1559.9</v>
+        <f t="shared" si="4"/>
+        <v>761.2</v>
       </c>
       <c r="H12" s="8">
-        <v>1559.9</v>
+        <v>791.2</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -759,81 +759,132 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>4638</v>
+        <v>4748</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="2"/>
-        <v>180</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="E13" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="1"/>
-        <v>437.40000000000003</v>
-      </c>
-      <c r="G13" s="8"/>
+        <f t="shared" si="2"/>
+        <v>267.3</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43945</v>
+        <v>43973</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10">
-        <v>4538</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="C14" s="3">
+        <v>4788</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="2"/>
+        <v>1122.5</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="4"/>
+        <v>1559.9</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1559.9</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="3">
+        <v>4638</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="2"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4538</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="10">
         <v>4458</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 14.03.2021\23.07.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 31.07.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,83 +470,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>44418</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>5938</v>
-      </c>
-      <c r="D2" s="3">
-        <f>SUM(C2,-C4)</f>
-        <v>100</v>
-      </c>
-      <c r="E2" s="3">
-        <v>4.96</v>
-      </c>
-      <c r="F2" s="8">
-        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
-        <v>496</v>
-      </c>
-      <c r="G2" s="8">
-        <f>SUM(F2,F3)</f>
-        <v>603.20000000000005</v>
-      </c>
-      <c r="H2" s="8">
-        <v>576.20000000000005</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3">
-        <v>5498</v>
-      </c>
-      <c r="D3" s="3">
-        <f>SUM(C3,-C5)</f>
-        <v>40</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.68</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" si="0"/>
-        <v>107.2</v>
-      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44376</v>
+        <v>44467</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>5838</v>
+        <v>6068</v>
       </c>
       <c r="D4" s="3">
-        <f>SUM(C4,-C6)</f>
-        <v>150</v>
+        <f t="shared" ref="D2:D11" si="0">SUM(C4,-C6)</f>
+        <v>130</v>
       </c>
       <c r="E4" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F4" s="8">
         <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>706.5</v>
+        <v>644.79999999999995</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1038</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="H4" s="8">
-        <v>1038</v>
+        <v>1234.4000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -555,49 +524,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>5458</v>
+        <v>5718</v>
       </c>
       <c r="D5" s="3">
-        <f>SUM(C5,-C7)</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="E5" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>331.5</v>
+        <v>589.6</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44330</v>
+        <v>44418</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>5688</v>
+        <v>5938</v>
       </c>
       <c r="D6" s="3">
-        <f>SUM(C6,-C8)</f>
-        <v>490</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="E6" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F15" si="2">D6*E6</f>
-        <v>2307.9</v>
+        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
+        <v>496</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>3200.4</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="H6" s="8">
-        <v>2191.8000000000002</v>
+        <v>576.20000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -606,49 +575,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>5328</v>
+        <v>5498</v>
       </c>
       <c r="D7" s="3">
-        <f>SUM(C7,-C9)</f>
-        <v>350</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="E7" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F7" s="8">
         <f t="shared" si="2"/>
-        <v>892.49999999999989</v>
+        <v>107.2</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44099</v>
+        <v>44376</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>5198</v>
+        <v>5838</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D15" si="3">SUM(C8,-C10)</f>
-        <v>200</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="E8" s="3">
         <v>4.71</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="2"/>
-        <v>942</v>
+        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
+        <v>706.5</v>
       </c>
       <c r="G8" s="8">
-        <f t="shared" ref="G8:G14" si="4">SUM(F8,F9)</f>
-        <v>1273.5</v>
+        <f>SUM(F8,F9)</f>
+        <v>1038</v>
       </c>
       <c r="H8" s="8">
-        <v>1273.5</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -657,17 +626,17 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>4978</v>
+        <v>5458</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="E9" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>331.5</v>
       </c>
       <c r="G9" s="8"/>
@@ -675,31 +644,31 @@
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44057</v>
+        <v>44330</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>4998</v>
+        <v>5688</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>490</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="2"/>
-        <v>471</v>
+        <f t="shared" ref="F10:F19" si="4">D10*E10</f>
+        <v>2307.9</v>
       </c>
       <c r="G10" s="8">
-        <f t="shared" si="4"/>
-        <v>726</v>
+        <f>SUM(F10,F11)</f>
+        <v>3200.4</v>
       </c>
       <c r="H10" s="8">
-        <v>726</v>
+        <v>2191.8000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,49 +677,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>4848</v>
+        <v>5328</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="2"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="4"/>
+        <v>892.49999999999989</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44012</v>
+        <v>44099</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>4898</v>
+        <v>5198</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" ref="D12:D19" si="5">SUM(C12,-C14)</f>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="2"/>
-        <v>493.90000000000003</v>
+        <f t="shared" si="4"/>
+        <v>942</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" si="4"/>
-        <v>761.2</v>
+        <f t="shared" ref="G12:G18" si="6">SUM(F12,F13)</f>
+        <v>1273.5</v>
       </c>
       <c r="H12" s="8">
-        <v>791.2</v>
+        <v>1273.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -759,49 +728,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>4748</v>
+        <v>4978</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="3"/>
-        <v>110</v>
+        <f t="shared" si="5"/>
+        <v>130</v>
       </c>
       <c r="E13" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="2"/>
-        <v>267.3</v>
-      </c>
-      <c r="G13" s="3"/>
+        <f t="shared" si="4"/>
+        <v>331.5</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>43973</v>
+        <v>44057</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>4788</v>
+        <v>4998</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="2"/>
-        <v>1122.5</v>
+        <f t="shared" si="4"/>
+        <v>471</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="4"/>
-        <v>1559.9</v>
+        <f t="shared" si="6"/>
+        <v>726</v>
       </c>
       <c r="H14" s="8">
-        <v>1559.9</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -810,81 +779,183 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>4638</v>
+        <v>4848</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>180</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="2"/>
-        <v>437.40000000000003</v>
+        <f t="shared" si="4"/>
+        <v>254.99999999999997</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>43945</v>
+        <v>44012</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="10">
-        <v>4538</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="C16" s="3">
+        <v>4898</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="4"/>
+        <v>493.90000000000003</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="6"/>
+        <v>761.2</v>
+      </c>
+      <c r="H16" s="8">
+        <v>791.2</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="3">
+        <v>4748</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="4"/>
+        <v>267.3</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>43973</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4788</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="4"/>
+        <v>1122.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="6"/>
+        <v>1559.9</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1559.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4638</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="4"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="10">
+        <v>4538</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="10">
         <v>4458</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sputnik/personal/ee/195ee.xlsx
+++ b/sputnik/personal/ee/195ee.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\USB-накопитель на 14.03.2021\16.09.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 15.09.2021 вкл-но\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USB-накопитель на 16.12.2021\16.12.2021.ОБНОВЛЕНИЕ САЙТА\Эл.энергия по 16.12.2021 вкл-но\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Дата оплаты</t>
   </si>
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -147,6 +147,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,52 +471,83 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="4">
+        <v>44552</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3">
+        <v>7178</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D3" si="0">SUM(C2,-C4)</f>
+        <v>400</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F3" si="1">D2*E2</f>
+        <v>1984</v>
+      </c>
+      <c r="G2" s="8">
+        <f>SUM(F2,F3)</f>
+        <v>2573.6</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2573.6</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6308</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="1"/>
+        <v>589.6</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44467</v>
+        <v>44523</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>6068</v>
+        <v>6778</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D2:D11" si="0">SUM(C4,-C6)</f>
-        <v>130</v>
+        <f t="shared" ref="D4:D5" si="2">SUM(C4,-C6)</f>
+        <v>710</v>
       </c>
       <c r="E4" s="3">
         <v>4.96</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F4:F5" si="1">D4*E4</f>
-        <v>644.79999999999995</v>
+        <f t="shared" ref="F4:F5" si="3">D4*E4</f>
+        <v>3521.6</v>
       </c>
       <c r="G4" s="8">
         <f>SUM(F4,F5)</f>
-        <v>1234.4000000000001</v>
+        <v>4513.2</v>
       </c>
       <c r="H4" s="8">
-        <v>1234.4000000000001</v>
+        <v>4017.2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,49 +556,49 @@
         <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>5718</v>
+        <v>6088</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>220</v>
+        <f t="shared" si="2"/>
+        <v>370</v>
       </c>
       <c r="E5" s="3">
         <v>2.68</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
-        <v>589.6</v>
+        <f t="shared" si="3"/>
+        <v>991.6</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44418</v>
+        <v>44467</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>5938</v>
+        <v>6068</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f t="shared" ref="D6:D13" si="4">SUM(C6,-C8)</f>
+        <v>130</v>
       </c>
       <c r="E6" s="3">
         <v>4.96</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F7" si="2">D6*E6</f>
-        <v>496</v>
+        <f t="shared" ref="F6:F7" si="5">D6*E6</f>
+        <v>644.79999999999995</v>
       </c>
       <c r="G6" s="8">
         <f>SUM(F6,F7)</f>
-        <v>603.20000000000005</v>
+        <v>1234.4000000000001</v>
       </c>
       <c r="H6" s="8">
-        <v>576.20000000000005</v>
+        <v>1234.4000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -575,49 +607,49 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>5498</v>
+        <v>5718</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>220</v>
       </c>
       <c r="E7" s="3">
         <v>2.68</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="2"/>
-        <v>107.2</v>
+        <f t="shared" si="5"/>
+        <v>589.6</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>5838</v>
+        <v>5938</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
-        <v>4.71</v>
+        <v>4.96</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F9" si="3">D8*E8</f>
-        <v>706.5</v>
+        <f t="shared" ref="F8:F9" si="6">D8*E8</f>
+        <v>496</v>
       </c>
       <c r="G8" s="8">
         <f>SUM(F8,F9)</f>
-        <v>1038</v>
+        <v>603.20000000000005</v>
       </c>
       <c r="H8" s="8">
-        <v>1038</v>
+        <v>576.20000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -626,49 +658,49 @@
         <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>5458</v>
+        <v>5498</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="E9" s="3">
-        <v>2.5499999999999998</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="3"/>
-        <v>331.5</v>
+        <f t="shared" si="6"/>
+        <v>107.2</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44330</v>
+        <v>44376</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>5688</v>
+        <v>5838</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
-        <v>490</v>
+        <f t="shared" si="4"/>
+        <v>150</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" ref="F10:F19" si="4">D10*E10</f>
-        <v>2307.9</v>
+        <f t="shared" ref="F10:F11" si="7">D10*E10</f>
+        <v>706.5</v>
       </c>
       <c r="G10" s="8">
         <f>SUM(F10,F11)</f>
-        <v>3200.4</v>
+        <v>1038</v>
       </c>
       <c r="H10" s="8">
-        <v>2191.8000000000002</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -677,49 +709,49 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <v>5328</v>
+        <v>5458</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>350</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="4"/>
-        <v>892.49999999999989</v>
+        <f t="shared" si="7"/>
+        <v>331.5</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44099</v>
+        <v>44330</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>5198</v>
+        <v>5688</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:D19" si="5">SUM(C12,-C14)</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>490</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="4"/>
-        <v>942</v>
+        <f t="shared" ref="F12:F21" si="8">D12*E12</f>
+        <v>2307.9</v>
       </c>
       <c r="G12" s="8">
-        <f t="shared" ref="G12:G18" si="6">SUM(F12,F13)</f>
-        <v>1273.5</v>
+        <f>SUM(F12,F13)</f>
+        <v>3200.4</v>
       </c>
       <c r="H12" s="8">
-        <v>1273.5</v>
+        <v>2191.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -728,49 +760,49 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>4978</v>
+        <v>5328</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="5"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>350</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="4"/>
-        <v>331.5</v>
+        <f t="shared" si="8"/>
+        <v>892.49999999999989</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>44057</v>
+        <v>44099</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="3">
-        <v>4998</v>
+        <v>5198</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" ref="D14:D21" si="9">SUM(C14,-C16)</f>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="4"/>
-        <v>471</v>
+        <f t="shared" si="8"/>
+        <v>942</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="6"/>
-        <v>726</v>
+        <f t="shared" ref="G14:G20" si="10">SUM(F14,F15)</f>
+        <v>1273.5</v>
       </c>
       <c r="H14" s="8">
-        <v>726</v>
+        <v>1273.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -779,49 +811,49 @@
         <v>9</v>
       </c>
       <c r="C15" s="3">
-        <v>4848</v>
+        <v>4978</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="9"/>
+        <v>130</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="4"/>
-        <v>254.99999999999997</v>
+        <f t="shared" si="8"/>
+        <v>331.5</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>44012</v>
+        <v>44057</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="3">
-        <v>4898</v>
+        <v>4998</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="E16" s="3">
-        <v>4.49</v>
+        <v>4.71</v>
       </c>
       <c r="F16" s="8">
-        <f t="shared" si="4"/>
-        <v>493.90000000000003</v>
+        <f t="shared" si="8"/>
+        <v>471</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="6"/>
-        <v>761.2</v>
+        <f t="shared" si="10"/>
+        <v>726</v>
       </c>
       <c r="H16" s="8">
-        <v>791.2</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -830,49 +862,49 @@
         <v>9</v>
       </c>
       <c r="C17" s="3">
-        <v>4748</v>
+        <v>4848</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="5"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>2.4300000000000002</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F17" s="8">
-        <f t="shared" si="4"/>
-        <v>267.3</v>
-      </c>
-      <c r="G17" s="3"/>
+        <f t="shared" si="8"/>
+        <v>254.99999999999997</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>43973</v>
+        <v>44012</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="3">
-        <v>4788</v>
+        <v>4898</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="9"/>
+        <v>110</v>
       </c>
       <c r="E18" s="3">
         <v>4.49</v>
       </c>
       <c r="F18" s="8">
-        <f t="shared" si="4"/>
-        <v>1122.5</v>
+        <f t="shared" si="8"/>
+        <v>493.90000000000003</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="6"/>
-        <v>1559.9</v>
+        <f t="shared" si="10"/>
+        <v>761.2</v>
       </c>
       <c r="H18" s="8">
-        <v>1559.9</v>
+        <v>791.2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -881,81 +913,141 @@
         <v>9</v>
       </c>
       <c r="C19" s="3">
-        <v>4638</v>
+        <v>4748</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
-        <v>180</v>
+        <f t="shared" si="9"/>
+        <v>110</v>
       </c>
       <c r="E19" s="3">
         <v>2.4300000000000002</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="4"/>
-        <v>437.40000000000003</v>
-      </c>
-      <c r="G19" s="8"/>
+        <f t="shared" si="8"/>
+        <v>267.3</v>
+      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>43945</v>
+        <v>43973</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="10">
-        <v>4538</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="C20" s="3">
+        <v>4788</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="9"/>
+        <v>250</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="8"/>
+        <v>1122.5</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="10"/>
+        <v>1559.9</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1559.9</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="3">
+        <v>4638</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>180</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="8"/>
+        <v>437.40000000000003</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>43945</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10">
+        <v>4538</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="10">
         <v>4458</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="8">
+        <f>SUM(G4:G23)</f>
+        <v>14909.800000000001</v>
+      </c>
+      <c r="H24" s="8">
+        <f>SUM(H4:H23)</f>
+        <v>13408.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11">
+        <f>SUM(H24,-G24)</f>
+        <v>-1501.6000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
